--- a/biology/Botanique/Tillandsia_rubra/Tillandsia_rubra.xlsx
+++ b/biology/Botanique/Tillandsia_rubra/Tillandsia_rubra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia rubra Ruiz &amp; Pav. est une espèce de plantes à fleurs de la famille des Bromeliaceae.
 L'épithète rubra signifie « rouge » et se rapporte au coloris des bractées de l'inflorescence.
@@ -512,10 +524,12 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia rubra Ruiz &amp; Pav., Fl. Peruv. 3: 40, tab. 266 (1802)
-Diagnose originale[1] :
+Diagnose originale :
 « T. panicula simplici rubra, spicis indivisis, foliis ensiformibus subacuminatis. »
 Type : Ruiz &amp; Pav., Fl. Peruv. : tab. 266 (1802)
 </t>
@@ -546,14 +560,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(aucune)
-Synonymie nomenclaturale
-Vriesea rubra (Ruiz &amp; Pav.) Beer
-Phytarrhiza rubra (Ruiz &amp; Pav.) E.Morren ex Baker
-Synonymie taxonomique
-(aucune)</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
         </is>
       </c>
     </row>
@@ -578,10 +589,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vriesea rubra (Ruiz &amp; Pav.) Beer
+Phytarrhiza rubra (Ruiz &amp; Pav.) E.Morren ex Baker</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,14 +626,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
+          <t>Synonymie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Typologie : plante herbacée en rosette monocarpique vivace par ses rejets latéraux ; rupicole[1].
-Habitat : ?
-Altitude : ?</t>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
         </is>
       </c>
     </row>
@@ -636,19 +662,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique du sud :
- Argentine
-Orán[2],[3]
- Pérou
-Tarma[1],[3]
-Régions andines[2]</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -671,10 +690,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Comportement en culture</t>
+          <t>Écologie et habitat</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Typologie : plante herbacée en rosette monocarpique vivace par ses rejets latéraux ; rupicole.
+Habitat : ?
+Altitude : ?</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -697,23 +724,197 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Amérique du sud :
+ Argentine
+Orán,
+ Pérou
+Tarma,
+Régions andines</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tillandsia_rubra</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_rubra</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Comportement en culture</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tillandsia_rubra</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_rubra</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Taxons infraspécifiques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia rubra var. rubra
-(autonyme)
-Tillandsia rubra var. costaricensis (Mez) Mez
-Tillandsia rubra var. costaricensis (Mez) Mez, in Pflanzenr. (Engler) [Heft 100], 4, Fam. 32 : 458 (1935)
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tillandsia rubra var. rubra</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(autonyme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tillandsia_rubra</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_rubra</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tillandsia rubra var. costaricensis (Mez) Mez</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia rubra var. costaricensis (Mez) Mez, in Pflanzenr. (Engler) [Heft 100], 4, Fam. 32 : 458 (1935)
 Synonymie :
 [ basionyme ] Tillandsia paniculata var. costaricensis Mez
-Tillandsia rubra var. fendleri (Griseb.) Mez
-Tillandsia rubra var. fendleri (Griseb.) Mez, in Pflanzenr. (Engler) [Heft 100], 4, Fam. 32 : 458 (1935)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tillandsia_rubra</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_rubra</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tillandsia rubra var. fendleri (Griseb.) Mez</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia rubra var. fendleri (Griseb.) Mez, in Pflanzenr. (Engler) [Heft 100], 4, Fam. 32 : 458 (1935)
 Synonymie :
 [ basionyme ] Tillandsia fendleri Griseb.
-Tillandsia rubra var. reducta L.B.Sm.
-Tillandsia rubra var. reducta L.B.Sm., in Fieldiana, Bot. 28: 151 (1951)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tillandsia_rubra</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_rubra</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tillandsia rubra var. reducta L.B.Sm.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia rubra var. reducta L.B.Sm., in Fieldiana, Bot. 28: 151 (1951)
 Diagnose originale : (à compléter)
 Type :
 leg. J.A. Steyermark, n° 60851, 1944-12-04 ; « Venezuela. Bolivar. Southeastern portion of base of Carrao-tepui, alt. 1460-1615 m » ; Typus (fragm.) GH (Gray Herbarium) (GH 29450)
